--- a/HRPortal .xlsx
+++ b/HRPortal .xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Release 3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>SL No</t>
   </si>
@@ -127,12 +130,63 @@
   </si>
   <si>
     <t>New pages added CTCEmailServlet, CTCEmailProxyUtil, CTC_Email_template and changes in empctc.jsp</t>
+  </si>
+  <si>
+    <t>In Bills report total no of bills should show</t>
+  </si>
+  <si>
+    <t>For different users some fields not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrollbar In every page should not be there </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard/Payroll show total amount for current financial year </t>
+  </si>
+  <si>
+    <t>Changes in BillsReportServlet</t>
+  </si>
+  <si>
+    <t>Changes in Controllers and WebManager.java</t>
+  </si>
+  <si>
+    <t>Changes in appstyle.css</t>
+  </si>
+  <si>
+    <t>Chnages in HomeController and home.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show particular modules for particular user in dashboard </t>
+  </si>
+  <si>
+    <t>Changes in home.jsp</t>
+  </si>
+  <si>
+    <t>Show pdf icon for Empctc details after updating their ctc</t>
+  </si>
+  <si>
+    <t>Changs in empctc and new servlet page</t>
+  </si>
+  <si>
+    <t>Send pdf when employees ctc updated</t>
+  </si>
+  <si>
+    <t>Changes in empctc and new servlet page added</t>
+  </si>
+  <si>
+    <t>Chnages in Payroll jsp</t>
+  </si>
+  <si>
+    <t>Backend &amp; UI</t>
+  </si>
+  <si>
+    <t>Deducting TDS in payroll according to their Annual CTC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -229,8 +283,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -563,14 +645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="22.375" style="3" customWidth="1"/>
@@ -766,7 +848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -863,6 +945,142 @@
       </c>
       <c r="E17" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.5">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="47.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="47.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.5">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="47.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="47.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/HRPortal .xlsx
+++ b/HRPortal .xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>SL No</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>Deducting TDS in payroll according to their Annual CTC</t>
+  </si>
+  <si>
+    <t>Bonus Column should add in payroll and should show in payslip if bonus present</t>
+  </si>
+  <si>
+    <t>Changes in PayrollDO, jsp and Util</t>
+  </si>
+  <si>
+    <t>Edit Access to HRUser also</t>
+  </si>
+  <si>
+    <t>Changes in viewemployee.jsp</t>
+  </si>
+  <si>
+    <t>Experience input field change to year and month</t>
+  </si>
+  <si>
+    <t>Changes in viewemployee.jsp &amp; addemployee.jsp</t>
+  </si>
+  <si>
+    <t>Update not working for middle name and languages known in employee</t>
+  </si>
+  <si>
+    <t>view employee  arrow images and showing same tab when again come to that page</t>
   </si>
 </sst>
 </file>
@@ -646,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1083,6 +1107,91 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:5" ht="63">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="63">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="63">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
